--- a/data/math/math-25.xlsx
+++ b/data/math/math-25.xlsx
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -464,10 +464,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                a = FastMath.sqrt(c1 / c2);
+</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>0.33333</t>
@@ -480,7 +485,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -488,10 +493,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                omega = FastMath.sqrt(c2 / c3);
+</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>0.33333</t>
@@ -504,7 +514,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -512,10 +522,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            this.observations = observations.clone();
+</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -528,7 +543,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -536,10 +551,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        }
+</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -552,7 +572,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -560,10 +580,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            sortObservations();
+</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -576,7 +601,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -584,10 +609,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            guessAOmega();
+</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -600,7 +630,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -608,10 +638,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            guessPhi();
+</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -624,7 +659,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -632,10 +667,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return new double[] { a, omega, phi };
+</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -648,7 +688,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -656,10 +696,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            WeightedObservedPoint curr = observations[0];
+</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -672,7 +717,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -680,10 +725,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            for (int j = 1; j &lt; observations.length; ++j) {
+</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -696,7 +746,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -704,10 +754,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                WeightedObservedPoint prec = curr;
+</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -720,7 +775,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -728,10 +783,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                curr = observations[j];
+</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -744,7 +804,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -752,10 +812,15 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if (curr.getX() &lt; prec.getX()) {
+</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -768,7 +833,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -776,10 +841,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        }
+</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -792,7 +862,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -800,10 +870,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double sx2 = 0;
+</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -816,7 +891,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -824,10 +899,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double sy2 = 0;
+</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -840,7 +920,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -848,10 +928,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double sxy = 0;
+</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -864,7 +949,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -872,10 +957,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double sxz = 0;
+</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -888,7 +978,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -896,10 +986,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double syz = 0;
+</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -912,7 +1007,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -920,10 +1015,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double currentX = observations[0].getX();
+</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -936,7 +1036,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -944,10 +1044,15 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double currentY = observations[0].getY();
+</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -960,7 +1065,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -968,10 +1073,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double f2Integral = 0;
+</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -984,7 +1094,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -992,10 +1102,15 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double fPrime2Integral = 0;
+</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1008,7 +1123,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1016,10 +1131,15 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            final double startX = currentX;
+</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1032,7 +1152,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1040,10 +1160,15 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            for (int i = 1; i &lt; observations.length; ++i) {
+</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1056,7 +1181,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1064,10 +1189,15 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                final double previousX = currentX;
+</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1080,7 +1210,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1088,10 +1218,15 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                final double previousY = currentY;
+</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1104,7 +1239,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1112,10 +1247,15 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                currentX = observations[i].getX();
+</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1128,7 +1268,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1136,10 +1276,15 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                currentY = observations[i].getY();
+</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1152,7 +1297,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1160,10 +1305,15 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                final double dx = currentX - previousX;
+</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1176,7 +1326,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1184,10 +1334,15 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                final double dy = currentY - previousY;
+</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1200,7 +1355,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1208,10 +1363,15 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                final double f2StepIntegral =
+</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1224,7 +1384,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1232,10 +1392,15 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                final double fPrime2StepIntegral = dy * dy / dx;
+</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1248,7 +1413,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1256,10 +1421,15 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                final double x = currentX - startX;
+</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1272,7 +1442,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1280,10 +1450,15 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                f2Integral += f2StepIntegral;
+</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1296,7 +1471,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1304,10 +1479,15 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                fPrime2Integral += fPrime2StepIntegral;
+</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1320,7 +1500,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1328,10 +1508,15 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                sx2 += x * x;
+</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1344,7 +1529,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1352,10 +1537,15 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                sy2 += f2Integral * f2Integral;
+</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1368,7 +1558,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1376,10 +1566,15 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                sxy += x * f2Integral;
+</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1392,7 +1587,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1400,10 +1595,15 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                sxz += x * fPrime2Integral;
+</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1416,7 +1616,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1424,10 +1624,15 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                syz += f2Integral * fPrime2Integral;
+</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1440,7 +1645,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1448,10 +1653,15 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double c1 = sy2 * sxz - sxy * syz;
+</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1464,7 +1674,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1472,10 +1682,15 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double c2 = sxy * sxz - sx2 * syz;
+</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1488,7 +1703,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1496,10 +1711,15 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double c3 = sx2 * sy2 - sxy * sxy;
+</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1512,7 +1732,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1520,10 +1740,15 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if ((c1 / c2 &lt; 0) || (c2 / c3 &lt; 0)) {
+</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1536,7 +1761,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1544,10 +1769,15 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        }
+</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1560,7 +1790,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1568,10 +1798,15 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double fcMean = 0;
+</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1584,7 +1819,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1592,10 +1827,15 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double fsMean = 0;
+</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1608,7 +1848,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1616,10 +1856,15 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double currentX = observations[0].getX();
+</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1632,7 +1877,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1640,10 +1885,15 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double currentY = observations[0].getY();
+</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1656,7 +1906,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1664,10 +1914,15 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            for (int i = 1; i &lt; observations.length; ++i) {
+</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1680,7 +1935,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1688,10 +1943,15 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                final double previousX = currentX;
+</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1704,7 +1964,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1712,10 +1972,15 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                final double previousY = currentY;
+</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1728,7 +1993,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1736,10 +2001,15 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                currentX = observations[i].getX();
+</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1752,7 +2022,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1760,10 +2030,15 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                currentY = observations[i].getY();
+</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1776,7 +2051,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1784,10 +2059,15 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                final double currentYPrime = (currentY - previousY) / (currentX - previousX);
+</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1800,7 +2080,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1808,10 +2088,15 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                double omegaX = omega * currentX;
+</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1824,7 +2109,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1832,10 +2117,15 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                double cosine = FastMath.cos(omegaX);
+</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1848,7 +2138,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1856,10 +2146,15 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                double sine = FastMath.sin(omegaX);
+</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1872,7 +2167,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1880,10 +2175,15 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                fcMean += omega * currentY * cosine - currentYPrime * sine;
+</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1896,7 +2196,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1904,10 +2204,15 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                fsMean += omega * currentY * sine + currentYPrime * cosine;
+</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1920,7 +2225,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1928,10 +2233,15 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            phi = FastMath.atan2(-fsMean, fcMean);
+</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1944,7 +2254,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1952,10 +2262,15 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        }
+</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>0.25000</t>
@@ -1968,7 +2283,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1976,10 +2291,15 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        public ParameterGuesser(WeightedObservedPoint[] observations) {
+</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>0.20000</t>
@@ -1992,7 +2312,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2000,10 +2320,15 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (observations.length &lt; 4) {
+</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>0.20000</t>
@@ -2024,7 +2349,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2053,7 +2378,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2082,7 +2407,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2111,7 +2436,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2140,7 +2465,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2169,7 +2494,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2198,7 +2523,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2219,7 +2544,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -2227,10 +2552,15 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                throw new NumberIsTooSmallException(LocalizedFormats.INSUFFICIENT_OBSERVED_POINTS_IN_SAMPLE,
+</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2243,7 +2573,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2251,10 +2581,15 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    int i = j - 1;
+</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2267,7 +2602,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -2275,10 +2610,15 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    WeightedObservedPoint mI = observations[i];
+</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2291,7 +2631,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2299,10 +2639,15 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    while ((i &gt;= 0) &amp;&amp; (curr.getX() &lt; mI.getX())) {
+</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2315,7 +2660,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2323,10 +2668,15 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        observations[i + 1] = mI;
+</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2339,7 +2689,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -2347,10 +2697,15 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        if (i-- != 0) {
+</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2363,7 +2718,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -2371,10 +2726,15 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                            mI = observations[i];
+</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2387,7 +2747,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -2395,10 +2755,15 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    observations[i + 1] = curr;
+</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2411,7 +2776,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2419,10 +2784,15 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    curr = observations[j];
+</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2435,7 +2805,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2443,10 +2813,15 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                final int last = observations.length - 1;
+</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2459,7 +2834,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2467,10 +2842,15 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                final double xRange = observations[last].getX() - observations[0].getX();
+</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2483,7 +2863,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2491,10 +2871,15 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if (xRange == 0) {
+</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2507,7 +2892,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2515,10 +2900,15 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    throw new ZeroException();
+</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2531,7 +2921,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2539,10 +2929,15 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                omega = 2 * Math.PI / xRange;
+</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2555,7 +2950,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2563,10 +2958,15 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                double yMin = Double.POSITIVE_INFINITY;
+</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2579,7 +2979,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2587,10 +2987,15 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                double yMax = Double.NEGATIVE_INFINITY;
+</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2603,7 +3008,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2611,10 +3016,15 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                for (int i = 1; i &lt; observations.length; ++i) {
+</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2627,7 +3037,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -2635,10 +3045,15 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    final double y = observations[i].getY();
+</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2651,7 +3066,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -2659,10 +3074,15 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    if (y &lt; yMin) {
+</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2675,7 +3095,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -2683,10 +3103,15 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        yMin = y;
+</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2699,7 +3124,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2707,10 +3132,15 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    if (y &gt; yMax) {
+</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2723,7 +3153,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -2731,10 +3161,15 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        yMax = y;
+</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2747,7 +3182,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -2755,10 +3190,15 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                a = 0.5 * (yMax - yMin);
+</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2771,7 +3211,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter$ParameterGuesser</t>
+          <t>org.apache.commons.math3.optimization.fitting.HarmonicFitter</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -2779,10 +3219,15 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            } else {
+</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2803,7 +3248,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2832,7 +3277,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2861,7 +3306,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2890,7 +3335,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2919,7 +3364,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2948,7 +3393,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2977,7 +3422,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3006,7 +3451,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3035,7 +3480,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3064,7 +3509,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3093,7 +3538,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3122,7 +3567,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3151,7 +3596,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3180,7 +3625,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3209,7 +3654,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3238,7 +3683,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3267,7 +3712,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3296,7 +3741,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3325,7 +3770,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3354,7 +3799,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3383,7 +3828,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3412,7 +3857,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3441,7 +3886,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3470,7 +3915,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3499,7 +3944,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3528,7 +3973,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3557,7 +4002,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3586,7 +4031,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3615,7 +4060,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3644,7 +4089,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3673,7 +4118,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3702,7 +4147,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3731,7 +4176,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3760,7 +4205,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3789,7 +4234,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3818,7 +4263,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3847,7 +4292,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3876,7 +4321,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3905,7 +4350,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3934,7 +4379,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3963,7 +4408,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3992,7 +4437,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4021,7 +4466,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4050,7 +4495,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4079,7 +4524,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4108,7 +4553,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>159</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4137,7 +4582,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>171</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4166,7 +4611,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4195,7 +4640,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4224,7 +4669,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4253,7 +4698,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4282,7 +4727,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4311,7 +4756,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4340,7 +4785,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4369,7 +4814,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4398,7 +4843,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>182</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4427,7 +4872,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>186</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4456,7 +4901,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4485,7 +4930,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>198</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4514,7 +4959,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4543,7 +4988,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4572,7 +5017,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>211</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4601,7 +5046,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>212</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4630,7 +5075,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>213</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4659,7 +5104,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>214</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4688,7 +5133,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>225</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4717,7 +5162,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>226</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4746,7 +5191,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>228</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4775,7 +5220,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>229</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4804,7 +5249,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4833,7 +5278,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4862,7 +5307,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4891,7 +5336,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>235</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4920,7 +5365,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>236</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4949,7 +5394,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4978,7 +5423,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>239</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5007,7 +5452,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>242</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5036,7 +5481,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>246</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5065,7 +5510,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>259</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5094,7 +5539,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5123,7 +5568,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5152,7 +5597,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>263</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5181,7 +5626,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>265</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5210,7 +5655,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5239,7 +5684,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5268,7 +5713,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>269</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5297,7 +5742,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>270</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5326,7 +5771,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5355,7 +5800,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>274</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5384,7 +5829,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>276</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5413,7 +5858,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>287</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5442,7 +5887,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>288</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5471,7 +5916,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5500,7 +5945,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>291</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5529,7 +5974,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>292</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5558,7 +6003,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>293</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5587,7 +6032,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>295</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5616,7 +6061,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>298</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5645,7 +6090,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5674,7 +6119,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>301</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5703,7 +6148,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>314</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5732,7 +6177,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>315</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5761,7 +6206,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5790,7 +6235,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>318</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5819,7 +6264,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>320</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5848,7 +6293,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>321</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5877,7 +6322,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>323</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5906,7 +6351,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>333</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5935,7 +6380,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>366</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5964,7 +6409,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>367</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5993,7 +6438,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>368</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6022,7 +6467,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6051,7 +6496,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6080,7 +6525,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6109,7 +6554,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -6138,7 +6583,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -6167,7 +6612,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -6196,7 +6641,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -6225,7 +6670,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -6254,7 +6699,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6283,7 +6728,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -6312,7 +6757,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -6341,7 +6786,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -6370,7 +6815,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -6399,7 +6844,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -6428,7 +6873,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6457,7 +6902,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6486,7 +6931,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6515,7 +6960,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6544,7 +6989,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6573,7 +7018,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6602,7 +7047,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -6631,7 +7076,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6660,7 +7105,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6689,7 +7134,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -6718,7 +7163,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -6747,7 +7192,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6776,7 +7221,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6805,7 +7250,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -6834,7 +7279,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6863,7 +7308,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -6892,7 +7337,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -6921,7 +7366,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -6950,7 +7395,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -6979,7 +7424,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -7008,7 +7453,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -7037,7 +7482,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -7066,7 +7511,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -7095,7 +7540,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>81</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -7124,7 +7569,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -7153,7 +7598,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -7182,7 +7627,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -7211,7 +7656,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -7240,7 +7685,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -7269,7 +7714,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -7298,7 +7743,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -7327,7 +7772,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -7356,7 +7801,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -7385,7 +7830,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -7414,7 +7859,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -7443,7 +7888,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -7472,7 +7917,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -7501,7 +7946,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -7530,7 +7975,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -7559,7 +8004,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -7588,7 +8033,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -7617,7 +8062,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -7646,7 +8091,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -7675,7 +8120,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -7704,7 +8149,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -7733,7 +8178,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -7762,7 +8207,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -7791,7 +8236,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -7820,7 +8265,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -7849,7 +8294,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -7878,7 +8323,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -7907,7 +8352,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -7936,7 +8381,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -7965,7 +8410,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -7994,7 +8439,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -8023,7 +8468,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -8052,7 +8497,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -8081,7 +8526,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -8110,7 +8555,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -8139,7 +8584,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -8168,7 +8613,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -8197,7 +8642,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -8226,7 +8671,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -8255,7 +8700,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -8284,7 +8729,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>122</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -8313,7 +8758,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -8342,7 +8787,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -8371,7 +8816,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>125</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -8400,7 +8845,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -8429,7 +8874,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -8458,7 +8903,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -8487,7 +8932,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -8516,7 +8961,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -8545,7 +8990,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -8574,7 +9019,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -8603,7 +9048,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -8632,7 +9077,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -8661,7 +9106,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -8690,7 +9135,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>136</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -8719,7 +9164,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -8748,7 +9193,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -8777,7 +9222,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -8806,7 +9251,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -8835,7 +9280,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>141</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -8864,7 +9309,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>142</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -8893,7 +9338,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>143</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -8922,7 +9367,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -8951,7 +9396,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>145</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -8980,7 +9425,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>146</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -9009,7 +9454,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -9038,7 +9483,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -9067,7 +9512,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -9096,7 +9541,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -9125,7 +9570,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -9154,7 +9599,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -9183,7 +9628,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -9212,7 +9657,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -9241,7 +9686,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -9270,7 +9715,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -9299,7 +9744,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -9328,7 +9773,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -9357,7 +9802,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>159</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -9386,7 +9831,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>160</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -9415,7 +9860,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>161</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -9444,7 +9889,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -9473,7 +9918,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -9502,7 +9947,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>164</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -9531,7 +9976,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -9560,7 +10005,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -9589,7 +10034,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -9618,7 +10063,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>168</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -9647,7 +10092,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -9676,7 +10121,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -9705,7 +10150,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>171</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -9734,7 +10179,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -9763,7 +10208,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -9792,7 +10237,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -9821,7 +10266,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -9850,7 +10295,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -9879,7 +10324,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -9908,7 +10353,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>178</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -9937,7 +10382,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -9966,7 +10411,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -9995,7 +10440,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -10024,7 +10469,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>182</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -10053,7 +10498,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>183</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -10082,7 +10527,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>184</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -10111,7 +10556,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>185</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -10140,7 +10585,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>186</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -10169,7 +10614,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>187</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -10198,7 +10643,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>188</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -10227,7 +10672,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>189</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -10256,7 +10701,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>190</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -10285,7 +10730,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>191</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -10314,7 +10759,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>192</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -10343,7 +10788,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -10372,7 +10817,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>194</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -10401,7 +10846,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -10430,7 +10875,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>196</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -10459,7 +10904,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -10488,7 +10933,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>198</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -10517,7 +10962,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -10546,7 +10991,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -10575,7 +11020,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>201</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -10604,7 +11049,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>202</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -10633,7 +11078,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>203</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -10662,7 +11107,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>204</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -10691,7 +11136,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>205</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -10720,7 +11165,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>206</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -10749,7 +11194,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>207</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -10778,7 +11223,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -10807,7 +11252,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -10836,7 +11281,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>210</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -10865,7 +11310,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>211</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -10894,7 +11339,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>212</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -10923,7 +11368,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>213</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -10952,7 +11397,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>214</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -10981,7 +11426,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>215</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -11010,7 +11455,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>216</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -11039,7 +11484,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>217</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -11068,7 +11513,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>218</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -11097,7 +11542,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>219</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -11126,7 +11571,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -11155,7 +11600,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -11184,7 +11629,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -11213,7 +11658,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>223</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -11242,7 +11687,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>224</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -11271,7 +11716,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>225</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -11300,7 +11745,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>226</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -11329,7 +11774,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -11358,7 +11803,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>228</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -11387,7 +11832,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>229</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -11416,7 +11861,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -11445,7 +11890,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -11474,7 +11919,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -11503,7 +11948,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -11532,7 +11977,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>234</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -11561,7 +12006,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>235</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -11590,7 +12035,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>236</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -11619,7 +12064,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -11648,7 +12093,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>238</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -11677,7 +12122,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>239</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -11706,7 +12151,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -11735,7 +12180,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>241</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -11764,7 +12209,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>242</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -11793,7 +12238,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>243</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -11822,7 +12267,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>244</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -11851,7 +12296,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>245</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -11880,7 +12325,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>246</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -11909,7 +12354,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>247</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -11938,7 +12383,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>248</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -11967,7 +12412,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>249</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -11996,7 +12441,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>250</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -12025,7 +12470,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>251</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -12054,7 +12499,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>252</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -12083,7 +12528,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>253</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -12112,7 +12557,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>254</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -12141,7 +12586,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>255</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -12170,7 +12615,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>256</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -12199,7 +12644,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>257</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -12228,7 +12673,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>258</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -12257,7 +12702,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>259</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -12286,7 +12731,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -12315,7 +12760,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -12344,7 +12789,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>262</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -12373,7 +12818,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>263</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -12402,7 +12847,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>264</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -12431,7 +12876,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>265</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -12460,7 +12905,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -12489,7 +12934,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>267</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -12518,7 +12963,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -12547,7 +12992,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>269</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -12576,7 +13021,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>270</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -12605,7 +13050,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>271</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -12634,7 +13079,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -12663,7 +13108,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>273</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -12692,7 +13137,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>274</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -12721,7 +13166,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>275</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -12750,7 +13195,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>276</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -12779,7 +13224,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>277</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -12808,7 +13253,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>278</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -12837,7 +13282,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>279</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -12866,7 +13311,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>280</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -12895,7 +13340,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>281</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -12924,7 +13369,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>282</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -12953,7 +13398,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>283</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -12982,7 +13427,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>284</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -13011,7 +13456,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -13040,7 +13485,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>286</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -13069,7 +13514,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>287</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -13098,7 +13543,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>288</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -13127,7 +13572,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -13156,7 +13601,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -13185,7 +13630,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>291</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -13214,7 +13659,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>292</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -13243,7 +13688,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>293</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -13272,7 +13717,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>294</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -13301,7 +13746,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>295</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -13330,7 +13775,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>296</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -13359,7 +13804,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>297</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -13388,7 +13833,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>298</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -13417,7 +13862,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>299</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -13446,7 +13891,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -13475,7 +13920,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>301</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -13504,7 +13949,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>302</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -13533,7 +13978,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>303</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -13562,7 +14007,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>304</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -13591,7 +14036,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>305</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -13620,7 +14065,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>306</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -13649,7 +14094,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>307</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -13678,7 +14123,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>308</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -13707,7 +14152,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>309</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -13736,7 +14181,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>310</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -13765,7 +14210,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>311</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -13794,7 +14239,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>312</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -13823,7 +14268,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -13852,7 +14297,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>314</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -13881,7 +14326,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>315</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -13910,7 +14355,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -13939,7 +14384,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -13968,7 +14413,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>318</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -13997,7 +14442,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>319</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -14026,7 +14471,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>320</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -14055,7 +14500,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>321</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -14084,7 +14529,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>322</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -14113,7 +14558,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>323</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -14142,7 +14587,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -14171,7 +14616,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>325</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -14200,7 +14645,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>326</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -14229,7 +14674,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>327</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -14258,7 +14703,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>328</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -14287,7 +14732,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>329</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -14316,7 +14761,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>330</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -14345,7 +14790,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>331</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -14374,7 +14819,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>332</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -14403,7 +14848,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>333</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -14432,7 +14877,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -14461,7 +14906,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -14490,7 +14935,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>336</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -14519,7 +14964,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>337</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -14548,7 +14993,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>338</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -14577,7 +15022,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>339</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -14606,7 +15051,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>340</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -14635,7 +15080,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>341</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -14664,7 +15109,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>342</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -14693,7 +15138,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>343</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -14722,7 +15167,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>344</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -14751,7 +15196,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>345</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -14780,7 +15225,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -14809,7 +15254,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -14838,7 +15283,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>348</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -14867,7 +15312,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>349</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -14896,7 +15341,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>350</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -14925,7 +15370,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>351</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -14954,7 +15399,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>352</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -14983,7 +15428,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>353</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -15012,7 +15457,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -15041,7 +15486,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>372</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -15070,7 +15515,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>378</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -15099,7 +15544,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>379</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -15128,7 +15573,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>381</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -15157,7 +15602,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>383</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -15186,7 +15631,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>388</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -15215,7 +15660,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>386</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -15244,7 +15689,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -15273,7 +15718,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
@@ -15302,7 +15747,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -15331,7 +15776,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -15360,7 +15805,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -15389,7 +15834,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -15418,7 +15863,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -15447,7 +15892,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -15476,7 +15921,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -15505,7 +15950,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -15534,7 +15979,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -15563,7 +16008,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -15592,7 +16037,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -15621,7 +16066,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -15650,7 +16095,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -15679,7 +16124,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -15708,7 +16153,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -15737,7 +16182,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
@@ -15766,7 +16211,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
@@ -15795,7 +16240,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
@@ -15824,7 +16269,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
@@ -15853,7 +16298,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -15882,7 +16327,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
